--- a/AndroidPagePath.xlsx
+++ b/AndroidPagePath.xlsx
@@ -5,7 +5,7 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SAMSUNG\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SAMSUNG\Desktop\android\UnitecApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
   </sheets>
   <calcPr calcId="171027"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId2"/>
+    <pivotCache cacheId="2" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -368,7 +368,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -378,6 +378,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,7 +576,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -589,19 +595,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
@@ -613,7 +610,25 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -805,7 +820,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
   <location ref="H4:O48" firstHeaderRow="2" firstDataRow="2" firstDataCol="2" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" compact="0" outline="0" subtotalTop="0" showAll="0">
@@ -1332,7 +1347,7 @@
   <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1362,38 +1377,38 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="17" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="15" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="12" t="s">
         <v>34</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="10" t="s">
         <v>90</v>
       </c>
       <c r="H5" s="1" t="s">
@@ -1404,16 +1419,16 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="12" t="s">
         <v>36</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="10" t="s">
         <v>91</v>
       </c>
       <c r="H6" t="s">
@@ -1424,16 +1439,16 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="10" t="s">
         <v>92</v>
       </c>
       <c r="G7" t="s">
@@ -1444,13 +1459,13 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="8" t="s">
         <v>58</v>
       </c>
       <c r="H8" t="s">
@@ -1461,13 +1476,13 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="13" t="s">
         <v>62</v>
       </c>
       <c r="H9" t="s">
@@ -1475,13 +1490,13 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="8" t="s">
         <v>66</v>
       </c>
       <c r="H10" t="s">
@@ -1492,13 +1507,13 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="12" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="13" t="s">
         <v>63</v>
       </c>
       <c r="H11" t="s">
@@ -1506,13 +1521,13 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="8" t="s">
         <v>65</v>
       </c>
       <c r="H12" t="s">
@@ -1523,13 +1538,13 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="13" t="s">
         <v>57</v>
       </c>
       <c r="H13" t="s">
@@ -1537,13 +1552,13 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="12" t="s">
         <v>23</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="13" t="s">
         <v>63</v>
       </c>
       <c r="H14" t="s">
@@ -1554,13 +1569,13 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="13" t="s">
         <v>62</v>
       </c>
       <c r="H15" t="s">
@@ -1568,13 +1583,13 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="8" t="s">
         <v>58</v>
       </c>
       <c r="H16" t="s">
@@ -1585,13 +1600,13 @@
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="12" t="s">
         <v>38</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="13" t="s">
         <v>59</v>
       </c>
       <c r="H17" t="s">
@@ -1599,13 +1614,13 @@
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="13" t="s">
         <v>59</v>
       </c>
       <c r="H18" t="s">
@@ -1616,13 +1631,13 @@
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="12" t="s">
         <v>42</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="13" t="s">
         <v>55</v>
       </c>
       <c r="H19" t="s">
@@ -1630,13 +1645,13 @@
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="12" t="s">
         <v>44</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="13" t="s">
         <v>55</v>
       </c>
       <c r="H20" t="s">
@@ -1647,13 +1662,13 @@
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="12" t="s">
         <v>46</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="13" t="s">
         <v>54</v>
       </c>
       <c r="H21" t="s">
@@ -1661,13 +1676,13 @@
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="12" t="s">
         <v>48</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="13" t="s">
         <v>54</v>
       </c>
       <c r="H22" t="s">
@@ -1678,13 +1693,13 @@
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="6" t="s">
         <v>50</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="8" t="s">
         <v>61</v>
       </c>
       <c r="H23" t="s">
@@ -1692,13 +1707,13 @@
       </c>
     </row>
     <row r="24" spans="2:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="9" t="s">
         <v>60</v>
       </c>
       <c r="H24" t="s">
